--- a/Buoi6/data.xlsx
+++ b/Buoi6/data.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,1258 +413,1270 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/la-gi-khi-ubuntu-khoi-dong-mai-khong-vao-duoc/</t>
+          <t>http://nghiahsgs.com/tam-ly-khi-giao-dich/</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Là gì khi ubuntu khởi động mãi không vào được</t>
+          <t>Tâm lý trading, phần khó nhất trong giao dịch</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/2-bai-hoc-tu-nguoi-thay-dang-quy-cua-toi/</t>
+          <t>http://nghiahsgs.com/la-gi-khi-ubuntu-khoi-dong-mai-khong-vao-duoc/</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2 bài học từ người thầy đáng quý của tôi</t>
+          <t>Là gì khi ubuntu khởi động mãi không vào được</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/review-sach-di-tim-le-song-tac-gia-viktor-e-frankl/</t>
+          <t>http://nghiahsgs.com/2-bai-hoc-tu-nguoi-thay-dang-quy-cua-toi/</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Review sách : “đi tìm lẽ sống” tác giả “Viktor E. Frankl”</t>
+          <t>2 bài học từ người thầy đáng quý của tôi</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/tinh-cung-nghia-10-nam-theo-phuong-phap-dau-tu-theo-phuong-phap-trung-binh-gia/</t>
+          <t>http://nghiahsgs.com/review-sach-di-tim-le-song-tac-gia-viktor-e-frankl/</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tính cùng Nghĩa: 10 năm theo phương pháp đầu tư theo phương pháp trung bình giá</t>
+          <t>Review sách : “đi tìm lẽ sống” tác giả “Viktor E. Frankl”</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/vai-suy-nghi-ve-tai-chinh-hien-tai-25-tuoi/</t>
+          <t>http://nghiahsgs.com/tinh-cung-nghia-10-nam-theo-phuong-phap-dau-tu-theo-phuong-phap-trung-binh-gia/</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vài suy nghĩ về tài chính hiện tại (25 tuổi)</t>
+          <t>Tính cùng Nghĩa: 10 năm theo phương pháp đầu tư theo phương pháp trung bình giá</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/ngoi-nho-lai-hanh-trinh-7-nam-code-part-5-part-cuoi/</t>
+          <t>http://nghiahsgs.com/vai-suy-nghi-ve-tai-chinh-hien-tai-25-tuoi/</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ngồi nhớ lại hành trình 7 năm code (part 5, part cuối)</t>
+          <t>Vài suy nghĩ về tài chính hiện tại (25 tuổi)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/ngoi-nho-lai-hanh-trinh-7-nam-code-part-4/</t>
+          <t>http://nghiahsgs.com/ngoi-nho-lai-hanh-trinh-7-nam-code-part-5-part-cuoi/</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ngồi nhớ lại hành trình 7 năm code (part 4)</t>
+          <t>Ngồi nhớ lại hành trình 7 năm code (part 5, part cuối)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/ngoi-nho-lai-hanh-trinh-7-nam-code-part-3/</t>
+          <t>http://nghiahsgs.com/ngoi-nho-lai-hanh-trinh-7-nam-code-part-4/</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ngồi nhớ lại hành trình 7 năm code (part 3)</t>
+          <t>Ngồi nhớ lại hành trình 7 năm code (part 4)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/ngoi-nho-lai-hanh-trinh-7-nam-code-part-2/</t>
+          <t>http://nghiahsgs.com/ngoi-nho-lai-hanh-trinh-7-nam-code-part-3/</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ngồi nhớ lại hành trình 7 năm code (part 2)</t>
+          <t>Ngồi nhớ lại hành trình 7 năm code (part 3)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/ngoi-nho-lai-hanh-trinh-7-nam-code-part-1/</t>
+          <t>http://nghiahsgs.com/ngoi-nho-lai-hanh-trinh-7-nam-code-part-2/</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ngồi nhớ lại hành trình 7 năm code (part 1)</t>
+          <t>Ngồi nhớ lại hành trình 7 năm code (part 2)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/nay-toi-khung-hoang-ti-thoi/</t>
+          <t>http://nghiahsgs.com/ngoi-nho-lai-hanh-trinh-7-nam-code-part-1/</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nay tôi khủng hoảng tí thôi</t>
+          <t>Ngồi nhớ lại hành trình 7 năm code (part 1)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-cai-dat-openssh-server-tren-ubuntu/</t>
+          <t>http://nghiahsgs.com/nay-toi-khung-hoang-ti-thoi/</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cách cài đặt openssh server trên ubuntu</t>
+          <t>Nay tôi khủng hoảng tí thôi</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/command-line-cai-dat-teamview-chrome-telegram-tren-unbuntu/</t>
+          <t>http://nghiahsgs.com/cach-cai-dat-openssh-server-tren-ubuntu/</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Command line cài đặt teamview, chrome, telegram trên unbuntu</t>
+          <t>Cách cài đặt openssh server trên ubuntu</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-thay-doi-mau-sac-cho-terminal-windows/</t>
+          <t>http://nghiahsgs.com/command-line-cai-dat-teamview-chrome-telegram-tren-unbuntu/</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cách thay đổi màu sắc cho terminal windows</t>
+          <t>Command line cài đặt teamview, chrome, telegram trên unbuntu</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-xoa-cac-process-dang-sleep-trong-mysql-server/</t>
+          <t>http://nghiahsgs.com/cach-thay-doi-mau-sac-cho-terminal-windows/</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cách xóa các process đang sleep trong mysql server</t>
+          <t>Cách thay đổi màu sắc cho terminal windows</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-xem-co-bao-nhieu-luong-dang-ket-noi-den-mysql-server/</t>
+          <t>http://nghiahsgs.com/cach-xoa-cac-process-dang-sleep-trong-mysql-server/</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cách xem có bao nhiêu luồng đang kết nối đến mysql server</t>
+          <t>Cách xóa các process đang sleep trong mysql server</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-xem-phan-bo-dung-luong-file-va-thu-muc-tren-ubuntu/</t>
+          <t>http://nghiahsgs.com/cach-xem-co-bao-nhieu-luong-dang-ket-noi-den-mysql-server/</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cách xem phân bố dung lượng file và thư mục trên ubuntu</t>
+          <t>Cách xem có bao nhiêu luồng đang kết nối đến mysql server</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/2-cau-lenh-linux-minh-hay-dung-de-xem-file-visual-manager/</t>
+          <t>http://nghiahsgs.com/cach-xem-phan-bo-dung-luong-file-va-thu-muc-tren-ubuntu/</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2 câu lệnh linux mình hay dùng để xem file visual manager</t>
+          <t>Cách xem phân bố dung lượng file và thư mục trên ubuntu</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-cai-dat-golang-tren-ubuntu-18-04/</t>
+          <t>http://nghiahsgs.com/2-cau-lenh-linux-minh-hay-dung-de-xem-file-visual-manager/</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cách cài đặt golang trên ubuntu 18.04</t>
+          <t>2 câu lệnh linux mình hay dùng để xem file visual manager</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/khac-phuc-terminal-khong-len-trong-ubuntu-20/</t>
+          <t>http://nghiahsgs.com/cach-cai-dat-golang-tren-ubuntu-18-04/</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Khắc phục terminal không lên trong ubuntu 20</t>
+          <t>Cách cài đặt golang trên ubuntu 18.04</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-xem-youtube-tivi-tren-laptop/</t>
+          <t>http://nghiahsgs.com/khac-phuc-terminal-khong-len-trong-ubuntu-20/</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cách xem youtube tivi trên laptop</t>
+          <t>Khắc phục terminal không lên trong ubuntu 20</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-cai-dat-cloudfare-loai-tru-wordpress-admin/</t>
+          <t>http://nghiahsgs.com/cach-xem-youtube-tivi-tren-laptop/</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cách cài đặt cloudfare loại trừ wordpress admin</t>
+          <t>Cách xem youtube tivi trên laptop</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-fix-the-link-you-followed-has-expired-tren-wordpress/</t>
+          <t>http://nghiahsgs.com/cach-cai-dat-cloudfare-loai-tru-wordpress-admin/</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cách fix The link you followed has expired. trên wordpress</t>
+          <t>Cách cài đặt cloudfare loại trừ wordpress admin</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-cai-dat-wp-super-cache/</t>
+          <t>http://nghiahsgs.com/cach-fix-the-link-you-followed-has-expired-tren-wordpress/</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Cách cài đặt wp super cache</t>
+          <t>Cách fix The link you followed has expired. trên wordpress</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-tao-cron-job-linux-auto-reboot/</t>
+          <t>http://nghiahsgs.com/cach-cai-dat-wp-super-cache/</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cách tạo cron job linux auto reboot</t>
+          <t>Cách cài đặt wp super cache</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-replace-chuoi-trong-mysql/</t>
+          <t>http://nghiahsgs.com/cach-tao-cron-job-linux-auto-reboot/</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cách replace chuỗi trong mysql</t>
+          <t>Cách tạo cron job linux auto reboot</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-xoa-100-file-random-trong-1-thu-muc/</t>
+          <t>http://nghiahsgs.com/cach-replace-chuoi-trong-mysql/</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cách xóa 100 file random trong 1 thư mục</t>
+          <t>Cách replace chuỗi trong mysql</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-cai-dat-java-tren-ubuntu/</t>
+          <t>http://nghiahsgs.com/cach-xoa-100-file-random-trong-1-thu-muc/</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Cách cài đặt java trên ubuntu</t>
+          <t>Cách xóa 100 file random trong 1 thư mục</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-tang-so-luong-ket-noi-den-mysql/</t>
+          <t>http://nghiahsgs.com/cach-cai-dat-java-tren-ubuntu/</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cách tăng số lượng kết nối đến mysql</t>
+          <t>Cách cài đặt java trên ubuntu</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-de-suy-nghi-nhu-mot-senior-developer/</t>
+          <t>http://nghiahsgs.com/cach-tang-so-luong-ket-noi-den-mysql/</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cách để suy nghĩ như một senior developer</t>
+          <t>Cách tăng số lượng kết nối đến mysql</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-them-proxy-vao-chrome-selenium/</t>
+          <t>http://nghiahsgs.com/cach-de-suy-nghi-nhu-mot-senior-developer/</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cách thêm proxy vào chrome selenium</t>
+          <t>Cách để suy nghĩ như một senior developer</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-cai-dat-filezilla-tren-ubuntu/</t>
+          <t>http://nghiahsgs.com/cach-them-proxy-vao-chrome-selenium/</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cách cài đặt filezilla trên ubuntu</t>
+          <t>Cách thêm proxy vào chrome selenium</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-di-chuyen-so-luong-lon-file-giua-2-thu-muc/</t>
+          <t>http://nghiahsgs.com/cach-cai-dat-filezilla-tren-ubuntu/</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cách di chuyển số lượng lớn file giữa 2 thư mục</t>
+          <t>Cách cài đặt filezilla trên ubuntu</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-doi-ten-file-hang-loat-dung-bash-script/</t>
+          <t>http://nghiahsgs.com/cach-di-chuyen-so-luong-lon-file-giua-2-thu-muc/</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cách đổi tên file hàng loạt dùng bash script</t>
+          <t>Cách di chuyển số lượng lớn file giữa 2 thư mục</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cai-dat-va-su-dung-docker-co-ban-tren-ubuntu-server/</t>
+          <t>http://nghiahsgs.com/cach-doi-ten-file-hang-loat-dung-bash-script/</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cài đặt và sử dụng docker cơ bản trên ubuntu server</t>
+          <t>Cách đổi tên file hàng loạt dùng bash script</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-import-file-sql-kich-co-lon-vao-phpmyadmin/</t>
+          <t>http://nghiahsgs.com/cai-dat-va-su-dung-docker-co-ban-tren-ubuntu-server/</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cách import file sql kích cỡ lớn vào phpmyadmin</t>
+          <t>Cài đặt và sử dụng docker cơ bản trên ubuntu server</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-cai-wordpress-tren-ubuntu-server-ubuntu-20-su-dung-lamp/</t>
+          <t>http://nghiahsgs.com/cach-import-file-sql-kich-co-lon-vao-phpmyadmin/</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Cách cài wordpress trên ubuntu server (ubuntu 20) sử dụng lamp</t>
+          <t>Cách import file sql kích cỡ lớn vào phpmyadmin</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cai-dat-nodejs-tren-ubuntu/</t>
+          <t>http://nghiahsgs.com/cach-cai-wordpress-tren-ubuntu-server-ubuntu-20-su-dung-lamp/</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cài đặt nodejs trên ubuntu</t>
+          <t>Cách cài wordpress trên ubuntu server (ubuntu 20) sử dụng lamp</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-cai-anaconda-tren-ubuntu-server/</t>
+          <t>http://nghiahsgs.com/cai-dat-nodejs-tren-ubuntu/</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cách cài anaconda trên ubuntu server</t>
+          <t>Cài đặt nodejs trên ubuntu</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cai-php-ini-de-upload-file-sql-lon-len-php-admin/</t>
+          <t>http://nghiahsgs.com/cach-cai-anaconda-tren-ubuntu-server/</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cài php.ini để upload file sql lớn lên php admin</t>
+          <t>Cách cài anaconda trên ubuntu server</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/permission-trong-linux/</t>
+          <t>http://nghiahsgs.com/cai-php-ini-de-upload-file-sql-lon-len-php-admin/</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>permission trong linux</t>
+          <t>Cài php.ini để upload file sql lớn lên php admin</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-zip-va-unzip-file-tren-ubuntu/</t>
+          <t>http://nghiahsgs.com/permission-trong-linux/</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Cách zip và unzip file trên ubuntu</t>
+          <t>permission trong linux</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-cai-gui-cho-vps/</t>
+          <t>http://nghiahsgs.com/cach-zip-va-unzip-file-tren-ubuntu/</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Cách cài gui cho vps</t>
+          <t>Cách zip và unzip file trên ubuntu</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-cai-dat-wordpress-tren-ubuntu/</t>
+          <t>http://nghiahsgs.com/cach-cai-gui-cho-vps/</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cách cài đặt wordpress trên ubuntu</t>
+          <t>Cách cài gui cho vps</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-cai-nhieu-website-tren-cung-1-vps/</t>
+          <t>http://nghiahsgs.com/cach-cai-dat-wordpress-tren-ubuntu/</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cách cài nhiều website trên cùng 1 vps</t>
+          <t>Cách cài đặt wordpress trên ubuntu</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-cai-dat-co-so-du-lieu-mysql-php-myadmin-tren-vps-ubuntu-server-va-cho-phep-ket-noi-mysql-tu-xa/</t>
+          <t>http://nghiahsgs.com/cach-cai-nhieu-website-tren-cung-1-vps/</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cách cài đặt cơ sở dữ liệu mysql , php myadmin trên vps ubuntu server và cho phép kết nối mysql từ xa</t>
+          <t>Cách cài nhiều website trên cùng 1 vps</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-fake-ip-toan-may-bang-ssh/</t>
+          <t>http://nghiahsgs.com/cach-cai-dat-co-so-du-lieu-mysql-php-myadmin-tren-vps-ubuntu-server-va-cho-phep-ket-noi-mysql-tu-xa/</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cách fake ip toàn máy bằng ssh</t>
+          <t>Cách cài đặt cơ sở dữ liệu mysql , php myadmin trên vps ubuntu server và cho phép kết nối mysql từ xa</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-deploy-react-app-len-vps/</t>
+          <t>http://nghiahsgs.com/cach-fake-ip-toan-may-bang-ssh/</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cách deploy react app lên vps</t>
+          <t>Cách fake ip toàn máy bằng ssh</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-deploy-nodejs-len-vps/</t>
+          <t>http://nghiahsgs.com/cach-deploy-react-app-len-vps/</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Cách deploy nodejs lên vps</t>
+          <t>Cách deploy react app lên vps</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/5-ly-do-tuyet-voi-de-day-luc-5h-sang-moi-ngay/</t>
+          <t>http://nghiahsgs.com/cach-deploy-nodejs-len-vps/</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5 lý do tuyệt vời để dậy lúc 5h sáng mỗi ngày</t>
+          <t>Cách deploy nodejs lên vps</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/hoc-cach-code-theo-cach-kho-nhat/</t>
+          <t>http://nghiahsgs.com/5-ly-do-tuyet-voi-de-day-luc-5h-sang-moi-ngay/</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Học cách code, theo cách khó nhất</t>
+          <t>5 lý do tuyệt vời để dậy lúc 5h sáng mỗi ngày</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/6-thoi-quen-cua-nguoi-sieu-tu-hoc/</t>
+          <t>http://nghiahsgs.com/hoc-cach-code-theo-cach-kho-nhat/</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6 thói quen của người siêu tự học</t>
+          <t>Học cách code, theo cách khó nhất</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/5-thoi-quen-se-giup-nao-ban-luon-o-dat-dinh/</t>
+          <t>http://nghiahsgs.com/6-thoi-quen-cua-nguoi-sieu-tu-hoc/</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5 thói quen sẽ giúp não bạn luôn ở đạt đỉnh</t>
+          <t>6 thói quen của người siêu tự học</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-de-chon-su-nghiep-phu-hop-nhat-voi-ban/</t>
+          <t>http://nghiahsgs.com/5-thoi-quen-se-giup-nao-ban-luon-o-dat-dinh/</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Cách để chọn sự nghiệp phù hợp nhất với bạn</t>
+          <t>5 thói quen sẽ giúp não bạn luôn ở đạt đỉnh</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/25-thu-ban-doc-hai-ban-can-bo-qua/</t>
+          <t>http://nghiahsgs.com/cach-de-chon-su-nghiep-phu-hop-nhat-voi-ban/</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>25 thứ bạn độc hại bạn cần bỏ qua</t>
+          <t>Cách để chọn sự nghiệp phù hợp nhất với bạn</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/lam-the-nao-de-huan-luyen-nao-ban-nho-duoc-hau-het-moi-thu/</t>
+          <t>http://nghiahsgs.com/25-thu-ban-doc-hai-ban-can-bo-qua/</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Làm thế nào để huấn luyện não bạn nhớ được hầu hết mọi thứ</t>
+          <t>25 thứ bạn độc hại bạn cần bỏ qua</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/tu-nha-phat-trien-web-den-nha-phat-trien-phan-mem-toi-da-bat-dau-nhu-the-nao/</t>
+          <t>http://nghiahsgs.com/lam-the-nao-de-huan-luyen-nao-ban-nho-duoc-hau-het-moi-thu/</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Từ nhà phát triển web đến nhà phát triển phần mềm : tôi đã bắt đầu như thế nào</t>
+          <t>Làm thế nào để huấn luyện não bạn nhớ được hầu hết mọi thứ</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/day-la-ly-do-tai-sao-nhieu-nha-khoa-hoc-du-lieu-data-scientists-dang-bo-viec/</t>
+          <t>http://nghiahsgs.com/tu-nha-phat-trien-web-den-nha-phat-trien-phan-mem-toi-da-bat-dau-nhu-the-nao/</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Đây là lý do tại sao nhiều nhà khoa học dữ liệu (data scientists) đang bỏ việc</t>
+          <t>Từ nhà phát triển web đến nhà phát triển phần mềm : tôi đã bắt đầu như thế nào</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/hoc-toan-de-lam-gi/</t>
+          <t>http://nghiahsgs.com/day-la-ly-do-tai-sao-nhieu-nha-khoa-hoc-du-lieu-data-scientists-dang-bo-viec/</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Học toán để làm gì ?</t>
+          <t>Đây là lý do tại sao nhiều nhà khoa học dữ liệu (data scientists) đang bỏ việc</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/toi-da-chong-lai-su-tri-hoan-boi-lam-dieu-nay/</t>
+          <t>http://nghiahsgs.com/hoc-toan-de-lam-gi/</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Tôi đã chống lại sự trì hoãn bởi làm điều này</t>
+          <t>Học toán để làm gì ?</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/nhung-gi-toi-da-hoc-trong-6-thang-trong-cong-viec-dau-tien-cua-toi-nhu-mot-ky-su-phat-trien-phan-mem-tu-hoc/</t>
+          <t>http://nghiahsgs.com/toi-da-chong-lai-su-tri-hoan-boi-lam-dieu-nay/</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Những gì tôi đã học trong 6 tháng trong công việc đầu tiên của tôi như một kỹ sư phát triển phần mềm tự học</t>
+          <t>Tôi đã chống lại sự trì hoãn bởi làm điều này</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/suc-manh-cua-viec-khong-lam-gi/</t>
+          <t>http://nghiahsgs.com/nhung-gi-toi-da-hoc-trong-6-thang-trong-cong-viec-dau-tien-cua-toi-nhu-mot-ky-su-phat-trien-phan-mem-tu-hoc/</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Sức mạnh của việc không làm gì</t>
+          <t>Những gì tôi đã học trong 6 tháng trong công việc đầu tiên của tôi như một kỹ sư phát triển phần mềm tự học</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/tan-gai-nhap-mon-chuong-5/</t>
+          <t>http://nghiahsgs.com/suc-manh-cua-viec-khong-lam-gi/</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Tán gái nhập môn chương 5</t>
+          <t>Sức mạnh của việc không làm gì</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/tan-gai-nhap-mon-chuong-4/</t>
+          <t>http://nghiahsgs.com/tan-gai-nhap-mon-chuong-5/</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Tán gái nhập môn chương 4</t>
+          <t>Tán gái nhập môn chương 5</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/tan-gai-nhap-mon-chuong-3/</t>
+          <t>http://nghiahsgs.com/tan-gai-nhap-mon-chuong-4/</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Tán gái nhập môn chương 3</t>
+          <t>Tán gái nhập môn chương 4</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/tan-gai-nhap-mon-chuong-2/</t>
+          <t>http://nghiahsgs.com/tan-gai-nhap-mon-chuong-3/</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Tán gái nhập môn chương 2</t>
+          <t>Tán gái nhập môn chương 3</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/tan-gai-nhap-mon-chuong-1/</t>
+          <t>http://nghiahsgs.com/tan-gai-nhap-mon-chuong-2/</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Tán gái nhập môn chương 1</t>
+          <t>Tán gái nhập môn chương 2</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-mua-va-set-up-1-vps-linux/</t>
+          <t>http://nghiahsgs.com/tan-gai-nhap-mon-chuong-1/</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Cách mua và set up 1 vps linux</t>
+          <t>Tán gái nhập môn chương 1</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/tool-auto-tao-acc-zingme-vn-v1-0-not-pass-capcha/</t>
+          <t>http://nghiahsgs.com/cach-mua-va-set-up-1-vps-linux/</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TOOL AUTO TẠO ACC ZINGME.VN V1.0 (NOT PASS CAPCHA)</t>
+          <t>Cách mua và set up 1 vps linux</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/share-ma-nguon-bivise-ssh-client-viet-bang-autoit/</t>
+          <t>http://nghiahsgs.com/tool-auto-tao-acc-zingme-vn-v1-0-not-pass-capcha/</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SHARE MÃ NGUỒN BIVISE SSH CLIENT VIẾT BẰNG AUTOIT</t>
+          <t>TOOL AUTO TẠO ACC ZINGME.VN V1.0 (NOT PASS CAPCHA)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/lenh-cmd-de-tat-bat-dcom/</t>
+          <t>http://nghiahsgs.com/share-ma-nguon-bivise-ssh-client-viet-bang-autoit/</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>LỆNH CMD ĐỂ TẮT BẬT DCOM</t>
+          <t>SHARE MÃ NGUỒN BIVISE SSH CLIENT VIẾT BẰNG AUTOIT</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/api-cua-mail-10p-cho-ae-lam-tool-can-mail-ao-lien-tuc/</t>
+          <t>http://nghiahsgs.com/lenh-cmd-de-tat-bat-dcom/</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>API CỦA MAIL 10P CHO AE LÀM TOOL CẦN MAIL ẢO LIÊN TỤC</t>
+          <t>LỆNH CMD ĐỂ TẮT BẬT DCOM</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/viet-cho-tuoi-tre-da-va-dang-du-doi/</t>
+          <t>http://nghiahsgs.com/api-cua-mail-10p-cho-ae-lam-tool-can-mail-ao-lien-tuc/</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Viết cho tuổi trẻ đã và đang dữ dội</t>
+          <t>API CỦA MAIL 10P CHO AE LÀM TOOL CẦN MAIL ẢO LIÊN TỤC</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/matplot-lib-cheet-sheet/</t>
+          <t>http://nghiahsgs.com/viet-cho-tuoi-tre-da-va-dang-du-doi/</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>matplot lib cheet sheet</t>
+          <t>Viết cho tuổi trẻ đã và đang dữ dội</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/hoi-vai-dieu-ma-chi-nhung-nguoi-tung-lap-trinh-20-50-nam-moi-biet-la-gi/</t>
+          <t>http://nghiahsgs.com/matplot-lib-cheet-sheet/</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Hỏi: Vài điều mà chỉ những người từng lập trình 20-50 năm mới biết là gì?</t>
+          <t>matplot lib cheet sheet</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/thich-va-dam-me/</t>
+          <t>http://nghiahsgs.com/hoi-vai-dieu-ma-chi-nhung-nguoi-tung-lap-trinh-20-50-nam-moi-biet-la-gi/</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>THÍCH VÀ ĐAM MÊ</t>
+          <t>Hỏi: Vài điều mà chỉ những người từng lập trình 20-50 năm mới biết là gì?</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/tai-sao-viet-nam-mai-ngheo/</t>
+          <t>http://nghiahsgs.com/thich-va-dam-me/</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Tại sao việt nam mãi nghèo</t>
+          <t>THÍCH VÀ ĐAM MÊ</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/mark-down-co-ban/</t>
+          <t>http://nghiahsgs.com/tai-sao-viet-nam-mai-ngheo/</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Mark down cơ bản</t>
+          <t>Tại sao việt nam mãi nghèo</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/tom-gon-cuon-sach-nghi-giau-lam-giau/</t>
+          <t>http://nghiahsgs.com/mark-down-co-ban/</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Tóm gọn cuốn sách nghĩ giàu làm giàu</t>
+          <t>Mark down cơ bản</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/huong-dan-co-ban-cach-dung-github/</t>
+          <t>http://nghiahsgs.com/tom-gon-cuon-sach-nghi-giau-lam-giau/</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Hướng dẫn cơ bản cách dùng github</t>
+          <t>Tóm gọn cuốn sách nghĩ giàu làm giàu</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/ai-se-lam-thay-doi-cuoc-doi-toi/</t>
+          <t>http://nghiahsgs.com/huong-dan-co-ban-cach-dung-github/</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Ai sẽ làm thay đổi cuộc đời tôi</t>
+          <t>Hướng dẫn cơ bản cách dùng github</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/free-data-science-learning-resources/</t>
+          <t>http://nghiahsgs.com/ai-se-lam-thay-doi-cuoc-doi-toi/</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Free Data Science learning resources</t>
+          <t>Ai sẽ làm thay đổi cuộc đời tôi</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/khat-vong-tuoi-tre-7-dieu-tuoi-tre-nen-co/</t>
+          <t>http://nghiahsgs.com/free-data-science-learning-resources/</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[Khát vọng tuổi trẻ] 7 Điều tuổi trẻ nên có</t>
+          <t>Free Data Science learning resources</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/quan-niem-cua-dong-y-ve-gio-vang-thuc-day-moi-sang-neu-day-sai-gio-ca-ngay-met-moi/</t>
+          <t>http://nghiahsgs.com/khat-vong-tuoi-tre-7-dieu-tuoi-tre-nen-co/</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Quan niệm của Đông y về giờ “vàng” thức dậy mỗi sáng: Nếu dậy sai giờ, cả ngày mệt mỏi!</t>
+          <t>[Khát vọng tuổi trẻ] 7 Điều tuổi trẻ nên có</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/dinh-luat-tre/</t>
+          <t>http://nghiahsgs.com/quan-niem-cua-dong-y-ve-gio-vang-thuc-day-moi-sang-neu-day-sai-gio-ca-ngay-met-moi/</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ĐỊNH LUẬT TRE</t>
+          <t>Quan niệm của Đông y về giờ “vàng” thức dậy mỗi sáng: Nếu dậy sai giờ, cả ngày mệt mỏi!</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/chia-se-bo-office-2010/</t>
+          <t>http://nghiahsgs.com/dinh-luat-tre/</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Chia sẻ bộ Office 2010 win 10</t>
+          <t>ĐỊNH LUẬT TRE</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/tan-gai-dai-cuong-chuong-2/</t>
+          <t>http://nghiahsgs.com/chia-se-bo-office-2010/</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TÁN GÁI ĐẠI CƯƠNG chương 2</t>
+          <t>Chia sẻ bộ Office 2010 win 10</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/tan-gai-dai-cuong-chuong-1/</t>
+          <t>http://nghiahsgs.com/tan-gai-dai-cuong-chuong-2/</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TÁN GÁI ĐẠI CƯƠNG chương 1</t>
+          <t>TÁN GÁI ĐẠI CƯƠNG chương 2</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/15-web-nang-cap-nao-bo/</t>
+          <t>http://nghiahsgs.com/tan-gai-dai-cuong-chuong-1/</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve">15 WEB NÂNG CẤP NÃO BỘ </t>
+          <t>TÁN GÁI ĐẠI CƯƠNG chương 1</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/python-co-ban-bai-0-loi-noi-dau/</t>
+          <t>http://nghiahsgs.com/15-web-nang-cap-nao-bo/</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>[ Python cơ bản ] Bài 0 : Lời nói đầu</t>
+          <t xml:space="preserve">15 WEB NÂNG CẤP NÃO BỘ </t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/huong-them-binh-luan-facebook-vao-binh-luan-website/</t>
+          <t>http://nghiahsgs.com/python-co-ban-bai-0-loi-noi-dau/</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Hướng thêm bình luận facebook vào bình luận website</t>
+          <t>[ Python cơ bản ] Bài 0 : Lời nói đầu</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/1-so-cau-lenh-thong-dung-terminal-trong-ubuntu/</t>
+          <t>http://nghiahsgs.com/huong-them-binh-luan-facebook-vao-binh-luan-website/</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1 số câu lệnh thông dụng terminal trong linux</t>
+          <t>Hướng thêm bình luận facebook vào bình luận website</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cach-chinh-toc-do-video-khi-xem-online/</t>
+          <t>http://nghiahsgs.com/1-so-cau-lenh-thong-dung-terminal-trong-ubuntu/</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Cách chỉnh tốc độ video khi xem online</t>
+          <t>1 số câu lệnh thông dụng terminal trong linux</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/matlab-bai-1-gioi-thieu-va-cai-dat/</t>
+          <t>http://nghiahsgs.com/cach-chinh-toc-do-video-khi-xem-online/</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Matlab cơ bản</t>
+          <t>Cách chỉnh tốc độ video khi xem online</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cuoc-doi-nay-ta-con-bao-nhieu-lan-duoc-ve-que-nua/</t>
+          <t>http://nghiahsgs.com/matlab-bai-1-gioi-thieu-va-cai-dat/</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Cuộc đời này ta còn bao nhiêu lần được về quê nữa</t>
+          <t>Matlab cơ bản</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/mot-dcom-3g-viettel-co-bao-nhieu-ip-1-sim/</t>
+          <t>http://nghiahsgs.com/cuoc-doi-nay-ta-con-bao-nhieu-lan-duoc-ve-que-nua/</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Một dcom 3g viettel có bao nhiêu ip (1 sim)</t>
+          <t>Cuộc đời này ta còn bao nhiêu lần được về quê nữa</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/dan-ong-thanh-cong-truoc-tuoi-30-se-khong-bao-gio-ton-thoi-gian-vao-nhung-tro-vo-bo/</t>
+          <t>http://nghiahsgs.com/mot-dcom-3g-viettel-co-bao-nhieu-ip-1-sim/</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ĐÀN ÔNG THÀNH CÔNG TRƯỚC TUỔI 30 SẼ KHÔNG BAO GIỜ TỐN THỜI GIAN VÀO NHỮNG TRÒ VÔ BỔ</t>
+          <t>Một dcom 3g viettel có bao nhiêu ip (1 sim)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/co-tam-ly-ke-manh-nhu-loai-soi-ban-da-thang-90-tran-chien-cuoc-doi/</t>
+          <t>http://nghiahsgs.com/dan-ong-thanh-cong-truoc-tuoi-30-se-khong-bao-gio-ton-thoi-gian-vao-nhung-tro-vo-bo/</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CÓ TÂM LÝ KẺ MẠNH NHƯ LOÀI SÓI: BẠN ĐÃ THẮNG 90% TRẬN CHIẾN CUỘC ĐỜI</t>
+          <t>ĐÀN ÔNG THÀNH CÔNG TRƯỚC TUỔI 30 SẼ KHÔNG BAO GIỜ TỐN THỜI GIAN VÀO NHỮNG TRÒ VÔ BỔ</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/cong-thuc-khong-tri-hoan-4-giay-2-phut-72-gio-va-21-ngay/</t>
+          <t>http://nghiahsgs.com/co-tam-ly-ke-manh-nhu-loai-soi-ban-da-thang-90-tran-chien-cuoc-doi/</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CÔNG THỨC KHÔNG TRÌ HOÃN: 4 GIÂY – 2 PHÚT – 72 GIỜ VÀ 21 NGÀY</t>
+          <t>CÓ TÂM LÝ KẺ MẠNH NHƯ LOÀI SÓI: BẠN ĐÃ THẮNG 90% TRẬN CHIẾN CUỘC ĐỜI</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/nguoi-viet-qua-luoi-bieng-nhung-ham-doi-doi-bang-cach-do-den-lieu-mang/</t>
+          <t>http://nghiahsgs.com/cong-thuc-khong-tri-hoan-4-giay-2-phut-72-gio-va-21-ngay/</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NGƯỜI VIỆT QUÁ LƯỜI BIẾNG NHƯNG HAM ĐỔI ĐỜI BẰNG CÁCH ĐỎ ĐEN LIỀU MẠNG</t>
+          <t>CÔNG THỨC KHÔNG TRÌ HOÃN: 4 GIÂY – 2 PHÚT – 72 GIỜ VÀ 21 NGÀY</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/khi-ban-thay-doi-the-gioi-ben-trong-the-gioi-ben-ngoai-cung-thay-doi/</t>
+          <t>http://nghiahsgs.com/nguoi-viet-qua-luoi-bieng-nhung-ham-doi-doi-bang-cach-do-den-lieu-mang/</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>KHI BẠN THAY ĐỔI THẾ GIỚI BÊN TRONG, THẾ GIỚI BÊN NGOÀI CŨNG THAY ĐỔI</t>
+          <t>NGƯỜI VIỆT QUÁ LƯỜI BIẾNG NHƯNG HAM ĐỔI ĐỜI BẰNG CÁCH ĐỎ ĐEN LIỀU MẠNG</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/1000-tu-vung-tieng-anh-qua-tho-luc-bat-tai-lieu-hiem/</t>
+          <t>http://nghiahsgs.com/khi-ban-thay-doi-the-gioi-ben-trong-the-gioi-ben-ngoai-cung-thay-doi/</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1000 TỪ VỰNG TIẾNG ANH QUA THƠ LỤC BÁT (TÀI LIỆU HIẾM)</t>
+          <t>KHI BẠN THAY ĐỔI THẾ GIỚI BÊN TRONG, THẾ GIỚI BÊN NGOÀI CŨNG THAY ĐỔI</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/vi-du-code-c-in-trai-tim-ra-man-hinh-console/</t>
+          <t>http://nghiahsgs.com/1000-tu-vung-tieng-anh-qua-tho-luc-bat-tai-lieu-hiem/</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ví dụ code C in trái tim ra màn hình console</t>
+          <t>1000 TỪ VỰNG TIẾNG ANH QUA THƠ LỤC BÁT (TÀI LIỆU HIẾM)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>http://nghiahsgs.com/thuat-toan-sap-xep-don-gian-trong-autoit/</t>
+          <t>http://nghiahsgs.com/vi-du-code-c-in-trai-tim-ra-man-hinh-console/</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Thuật toán sắp xếp đơn giản trong autoit</t>
+          <t>Ví dụ code C in trái tim ra màn hình console</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
+          <t>http://nghiahsgs.com/thuat-toan-sap-xep-don-gian-trong-autoit/</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Thuật toán sắp xếp đơn giản trong autoit</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
           <t>http://nghiahsgs.com/khai-but-blog-nghiahsgs/</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>Khai bút blog nghiahsgs</t>
         </is>
